--- a/mcmaster_excel/Vented_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Vented_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,103 +434,159 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VentDia.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>VentDia.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>3/16"</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.213"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.059"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1/16"</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.044"</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>95861A111</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$10.61</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>4-40</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -570,21 +626,29 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>95861A111</t>
+          <t>95861A112</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$10.61</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,21 +688,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>95861A112</t>
+          <t>95861A113</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10.26</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,26 +745,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>95861A113</t>
+          <t>95861A114</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>12.72</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -702,17 +782,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1/16"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -722,49 +802,101 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.044"</t>
+          <t>0.048"</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>95861A114</t>
+          <t>95861A115</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10.20</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.262"</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.073"</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5/64"</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.048"</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>95861A116</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>6-32</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,21 +936,29 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>95861A115</t>
+          <t>95861A117</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,26 +993,34 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>95861A116</t>
+          <t>95861A118</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -882,17 +1030,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -902,7 +1050,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.048"</t>
+          <t>0.051"</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -912,21 +1060,29 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>95861A117</t>
+          <t>95861A119</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>11.62</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -936,17 +1092,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -956,49 +1112,101 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.048"</t>
+          <t>0.051"</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>95861A118</t>
+          <t>95861A121</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12.39</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.312"</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.087"</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3/32"</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.051"</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>95861A122</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>8-32</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1033,26 +1241,34 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>95861A119</t>
+          <t>95861A123</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1062,17 +1278,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1082,7 +1298,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.051"</t>
+          <t>0.057"</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1092,21 +1308,29 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>95861A121</t>
+          <t>95861A124</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1116,17 +1340,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1136,7 +1360,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.051"</t>
+          <t>0.057"</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1146,21 +1370,29 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>95861A122</t>
+          <t>95861A125</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1170,17 +1402,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1190,49 +1422,101 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.051"</t>
+          <t>0.057"</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>95861A123</t>
+          <t>95861A126</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.361"</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.101"</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1/8"</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.060"</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>95861A127</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>10-32</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1262,26 +1546,34 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.057"</t>
+          <t>0.060"</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>95861A124</t>
+          <t>95861A128</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1296,17 +1588,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1316,7 +1608,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.057"</t>
+          <t>0.067"</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1326,16 +1618,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>95861A125</t>
+          <t>95861A129</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1350,17 +1650,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1370,7 +1670,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.057"</t>
+          <t>0.067"</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1380,16 +1680,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>95861A126</t>
+          <t>95861A131</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>11.36</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1404,17 +1712,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1424,26 +1732,34 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.060"</t>
+          <t>0.067"</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>95861A127</t>
+          <t>95861A132</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1458,17 +1774,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1478,7 +1794,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.060"</t>
+          <t>0.072"</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1488,248 +1804,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>95861A128</t>
+          <t>95861A133</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>3/8"</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.437"</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.132"</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5/32"</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.067"</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>95861A129</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.437"</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.132"</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5/32"</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.067"</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>95861A131</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>10.54</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.437"</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.132"</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5/32"</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.067"</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>95861A132</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>13.81</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0.437"</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.132"</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5/32"</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.072"</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>95861A133</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
